--- a/reference/tests/input2_measures.xlsx
+++ b/reference/tests/input2_measures.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Preparing the dataset assembly tool for publication\GDAT tool\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon &amp; Izzi\Documents\Simon\Projects\Current projects\idi_tool_packages\reference\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>Schema_name</t>
   </si>
   <si>
-    <t>[DL-MAA2016-15]</t>
-  </si>
-  <si>
     <t>Table_name</t>
   </si>
   <si>
@@ -153,12 +150,15 @@
   </si>
   <si>
     <t>"avg_payment_prop"</t>
+  </si>
+  <si>
+    <t>[DL-MAA20XX-YY]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -498,57 +496,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -556,31 +554,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -588,31 +586,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -620,31 +618,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -652,31 +650,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -684,31 +682,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -716,31 +714,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -748,31 +746,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -780,31 +778,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -812,31 +810,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -844,31 +842,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -876,31 +874,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -908,31 +906,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -940,31 +938,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
